--- a/reading.xlsx
+++ b/reading.xlsx
@@ -1,18 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="阅读计划" sheetId="1" r:id="rId1"/>
+    <sheet name="阅读成果" sheetId="2" r:id="rId2"/>
+    <sheet name="阅读感悟" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+  <si>
+    <t>02 寻找心中的“巴拿马”如何做出比好更好的选择</t>
+  </si>
+  <si>
+    <t>03 即刻行动 最有效的，是即刻行动</t>
+  </si>
+  <si>
+    <t>04 怎样的学习，才能够直面现实 如何成为一个高段位的学习者</t>
+  </si>
+  <si>
+    <t>05 向未知的无限逼近 修炼思维，成为真正的利器</t>
+  </si>
+  <si>
+    <t>06 努力，是一种最需要学习的才能 不断优化你的“努力”方式</t>
+  </si>
+  <si>
+    <t>07 每一个成功者，都是唯一的 创造成功，而不是复制成功</t>
+  </si>
+  <si>
+    <t>《精进：如何成为一个很厉害的人》</t>
+  </si>
+  <si>
+    <t>《精进2：解锁万物的心智进化法》</t>
+  </si>
+  <si>
+    <t>01 视角 掌握观察之道</t>
+  </si>
+  <si>
+    <t>02 层次 潜入知识的深海</t>
+  </si>
+  <si>
+    <t>03 组合 理解万物构造之法</t>
+  </si>
+  <si>
+    <t>04 限制 唤醒沉睡的创造力</t>
+  </si>
+  <si>
+    <t>05 进化 洞悉变与不变的法则</t>
+  </si>
+  <si>
+    <t>06 迁移 跃入求知的通途</t>
+  </si>
+  <si>
+    <t>08 完美 精进者臻于至善</t>
+  </si>
+  <si>
+    <t>《精进2：解锁万物的心智进化法》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07 循环 让才能盘旋而上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章知识管理与认知优势</t>
+  </si>
+  <si>
+    <t>第二章掌握临界知识的底层思维与方法</t>
+  </si>
+  <si>
+    <t>第三章发现和应用自己的临界知识</t>
+  </si>
+  <si>
+    <t>第四章案例：核心临界知识及其应用</t>
+  </si>
+  <si>
+    <t>《好好学习-个人知识管理精进指南》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获很少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 时间之尺 我们应该怎样对待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,12 +116,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,16 +144,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -354,12 +476,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="53.625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43638</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -370,7 +658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -384,7 +674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="阅读计划" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10321" uniqueCount="7144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10323" uniqueCount="7146">
   <si>
     <t>02 寻找心中的“巴拿马”如何做出比好更好的选择</t>
   </si>
@@ -22892,12 +22892,20 @@
   <si>
     <t>https://book.douban.com/subject/4736118/</t>
   </si>
+  <si>
+    <t>思维讲解一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhizhi.reader边看书，看完书统一整理笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22929,6 +22937,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -22958,7 +22974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -22981,6 +22997,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23305,10 +23324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D22"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23318,7 +23337,7 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -23326,7 +23345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -23334,7 +23353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -23342,7 +23361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -23350,15 +23369,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="1">
+        <v>43643</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7144</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -23372,7 +23400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -23380,7 +23408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -23388,7 +23416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -23396,7 +23424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -23404,7 +23432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -23412,7 +23440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -23420,7 +23448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -23428,7 +23456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -72265,7 +72293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -17,6 +17,46 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22905,7 +22945,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22944,6 +22984,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -23324,10 +23371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23337,6 +23384,11 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>7145</v>
+      </c>
+    </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
@@ -23368,6 +23420,9 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="1">
+        <v>43645</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -23382,9 +23437,7 @@
       <c r="D6" t="s">
         <v>7144</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>7145</v>
-      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -23406,6 +23459,9 @@
       </c>
       <c r="B8" t="s">
         <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43644</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -23508,6 +23564,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23516,7 +23573,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阅读计划" sheetId="1" r:id="rId1"/>
-    <sheet name="阅读成果" sheetId="2" r:id="rId2"/>
-    <sheet name="阅读感悟" sheetId="3" r:id="rId3"/>
-    <sheet name="学习方法" sheetId="4" r:id="rId4"/>
-    <sheet name="自我成长" sheetId="5" r:id="rId5"/>
-    <sheet name="自我管理" sheetId="6" r:id="rId6"/>
-    <sheet name="思维" sheetId="7" r:id="rId7"/>
+    <sheet name="kaoyan" sheetId="8" r:id="rId2"/>
+    <sheet name="阅读成果" sheetId="2" r:id="rId3"/>
+    <sheet name="阅读感悟" sheetId="3" r:id="rId4"/>
+    <sheet name="学习方法" sheetId="4" r:id="rId5"/>
+    <sheet name="自我成长" sheetId="5" r:id="rId6"/>
+    <sheet name="自我管理" sheetId="6" r:id="rId7"/>
+    <sheet name="思维" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10323" uniqueCount="7146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10783" uniqueCount="7597">
   <si>
     <t>02 寻找心中的“巴拿马”如何做出比好更好的选择</t>
   </si>
@@ -22940,6 +22941,1359 @@
     <t>zhizhi.reader边看书，看完书统一整理笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>第一章极限与连续</t>
+  </si>
+  <si>
+    <t>第二节极限</t>
+  </si>
+  <si>
+    <t>笫三节连续与同断</t>
+  </si>
+  <si>
+    <t>第二章导数与微分</t>
+  </si>
+  <si>
+    <t>笫一节导数与微分的基本概念</t>
+  </si>
+  <si>
+    <t>第二节求导公式与法则</t>
+  </si>
+  <si>
+    <t>笫三节隐函数与参数方程确定的函数的求导</t>
+  </si>
+  <si>
+    <t>第三章一元函数微分学的应用…</t>
+  </si>
+  <si>
+    <t>第一节中值定理</t>
+  </si>
+  <si>
+    <t>第二节单词性与极值、凹凸性与拐点、函数作图</t>
+  </si>
+  <si>
+    <t>第四章不定积分</t>
+  </si>
+  <si>
+    <t>第一节不定积分的概念与基本性质</t>
+  </si>
+  <si>
+    <t>第二节不定积分基本公式与积分法…</t>
+  </si>
+  <si>
+    <t>第三节两类重要函数的不定积分</t>
+  </si>
+  <si>
+    <t>有理函数与三角有理函数(数学三不要求)</t>
+  </si>
+  <si>
+    <t>第五章定积分及其应用</t>
+  </si>
+  <si>
+    <t>第一芍定积分的慨念与基本性质</t>
+  </si>
+  <si>
+    <t>第二节基4理论</t>
+  </si>
+  <si>
+    <t>第三节广义积分</t>
+  </si>
+  <si>
+    <t>第四节定积分的应用…</t>
+  </si>
+  <si>
+    <t>第六章多元函数徵分学</t>
+  </si>
+  <si>
+    <t>第一节多元两数微分学的基本概念</t>
+  </si>
+  <si>
+    <t>第二节多元函数基本理论</t>
+  </si>
+  <si>
+    <t>第三节多元图数做分学的应用</t>
+  </si>
+  <si>
+    <t>第四节多元函数微分学的物理与几何应用数学二、三不要求)</t>
+  </si>
+  <si>
+    <t>第七章微分方程…</t>
+  </si>
+  <si>
+    <t>第一节微分方程的基本念</t>
+  </si>
+  <si>
+    <t>第二节一阶微分方程的种类及解法</t>
+  </si>
+  <si>
+    <t>第三节可降阶的高阶微分方程(数学三不要求)</t>
+  </si>
+  <si>
+    <t>第四节高阶微分方程</t>
+  </si>
+  <si>
+    <t>第八章重积分</t>
+  </si>
+  <si>
+    <t>第一节二重积分…</t>
+  </si>
+  <si>
+    <t>第二节三重积分(数学二,三不要求</t>
+  </si>
+  <si>
+    <t>二重积分重点题型讲解</t>
+  </si>
+  <si>
+    <t>二重积分重点题型讲解(数学二、三不要求)</t>
+  </si>
+  <si>
+    <t>第九章级数(数学二不要求)…</t>
+  </si>
+  <si>
+    <t>第一节常数项级数…</t>
+  </si>
+  <si>
+    <t>第二节幂级数</t>
+  </si>
+  <si>
+    <t>第三节傅里叶级数(数学三不要求)</t>
+  </si>
+  <si>
+    <t>第十章空间解析几何(数学二、三不要求)</t>
+  </si>
+  <si>
+    <t>第一节空间解析几何的理论</t>
+  </si>
+  <si>
+    <t>第二节向虽的应用</t>
+  </si>
+  <si>
+    <t>第十一章曲线积分与曲面积分(数学二、三不要求</t>
+  </si>
+  <si>
+    <t>第一节曲线积分</t>
+  </si>
+  <si>
+    <t>第二节曲面积分</t>
+  </si>
+  <si>
+    <t>第三节场论初步</t>
+  </si>
+  <si>
+    <t>第十二章数学的经济应用(数学一、二不要求)</t>
+  </si>
+  <si>
+    <t>第一节差分方程</t>
+  </si>
+  <si>
+    <t>第二节边际与弹性</t>
+  </si>
+  <si>
+    <t>第三节现值与利息</t>
+  </si>
+  <si>
+    <t>第一章行列式</t>
+  </si>
+  <si>
+    <t>本章概要</t>
+  </si>
+  <si>
+    <t>重要知识点讲解</t>
+  </si>
+  <si>
+    <t>第一节行列式的基本概念与性质</t>
+  </si>
+  <si>
+    <t>第二节行列式的应用——克拉默法则</t>
+  </si>
+  <si>
+    <t>第二章矩阵</t>
+  </si>
+  <si>
+    <t>本章概要…</t>
+  </si>
+  <si>
+    <t>第一节矩阵的基本概念与特殊矩阵</t>
+  </si>
+  <si>
+    <t>第二节矩阵的运算及性质</t>
+  </si>
+  <si>
+    <t>第三节矩阵的逆矩阵</t>
+  </si>
+  <si>
+    <t>第四节矩阵的秩</t>
+  </si>
+  <si>
+    <t>第五节矩阵等价</t>
+  </si>
+  <si>
+    <t>第三章向量…</t>
+  </si>
+  <si>
+    <t>第一节向量的概念与运算</t>
+  </si>
+  <si>
+    <t>第二节向量组的相关性与线性表示</t>
+  </si>
+  <si>
+    <t>第三节向量组等价向量组的极大线性无关组与向量组的秩</t>
+  </si>
+  <si>
+    <t>第四节n维向量空间(仅限数学</t>
+  </si>
+  <si>
+    <t>第四章线性方程组</t>
+  </si>
+  <si>
+    <t>第五章特征值和特征向量</t>
+  </si>
+  <si>
+    <t>第一节特征值与特征向量的基本概念</t>
+  </si>
+  <si>
+    <t>第二节特征值与特征向量的性质</t>
+  </si>
+  <si>
+    <t>第三节矩阵对角化理论</t>
+  </si>
+  <si>
+    <t>第六章二次型</t>
+  </si>
+  <si>
+    <t>第一节二次型的基本概念及其标准形</t>
+  </si>
+  <si>
+    <t>第二节正定矩阵与正定二次型</t>
+  </si>
+  <si>
+    <t>第1篇 基础知识</t>
+  </si>
+  <si>
+    <t>第1章 绪论</t>
+  </si>
+  <si>
+    <t>1.1 C+++历史背景</t>
+  </si>
+  <si>
+    <t>1.1.1 20世纪最伟大的发明</t>
+  </si>
+  <si>
+    <t>1.1.2 C++++发展历程</t>
+  </si>
+  <si>
+    <t>1.1.3 C++++中的杰出人物</t>
+  </si>
+  <si>
+    <t>1.2常用开发环境</t>
+  </si>
+  <si>
+    <t>1.2.1 Visual C++++ 6.0</t>
+  </si>
+  <si>
+    <t>1.2.2 Visual C++++ 2008</t>
+  </si>
+  <si>
+    <t>1.2.3 GCC/G++++</t>
+  </si>
+  <si>
+    <t>1.2.4 Dev-C</t>
+  </si>
+  <si>
+    <t>1.2.5 Eclipse</t>
+  </si>
+  <si>
+    <t>1.3认知C+++程序代码</t>
+  </si>
+  <si>
+    <t>1.4 C+++工程项目文件</t>
+  </si>
+  <si>
+    <t>1.5使用VC创建程序</t>
+  </si>
+  <si>
+    <t>1.6编译与连接过程</t>
+  </si>
+  <si>
+    <t>1.7 C+++的特点</t>
+  </si>
+  <si>
+    <t>1.8小结</t>
+  </si>
+  <si>
+    <t>第2章 数据类型</t>
+  </si>
+  <si>
+    <t>2.1第一个C+++程序</t>
+  </si>
+  <si>
+    <t>2.1.1 #include指令</t>
+  </si>
+  <si>
+    <t>2.1.2注释</t>
+  </si>
+  <si>
+    <t>2.1.3 main函数</t>
+  </si>
+  <si>
+    <t>2.1.4函数体</t>
+  </si>
+  <si>
+    <t>2.1.5函数返回值</t>
+  </si>
+  <si>
+    <t>2.2数据类型</t>
+  </si>
+  <si>
+    <t>2.3常量及符号</t>
+  </si>
+  <si>
+    <t>2.3.1整型常量</t>
+  </si>
+  <si>
+    <t>2.3.2实型常量</t>
+  </si>
+  <si>
+    <t>2.3.3字符常量</t>
+  </si>
+  <si>
+    <t>2.3.4字符串常量</t>
+  </si>
+  <si>
+    <t>2.3.5其他常量</t>
+  </si>
+  <si>
+    <t>2.4变量</t>
+  </si>
+  <si>
+    <t>2.4.1标识符</t>
+  </si>
+  <si>
+    <t>2.4.2变量与变量说明</t>
+  </si>
+  <si>
+    <t>2.4.3整型变量</t>
+  </si>
+  <si>
+    <t>2.4.4实型变量</t>
+  </si>
+  <si>
+    <t>2.4.5变量赋值</t>
+  </si>
+  <si>
+    <t>2.4.6变量赋初值</t>
+  </si>
+  <si>
+    <t>2.4.7字符变量</t>
+  </si>
+  <si>
+    <t>2.5数据输入与输出</t>
+  </si>
+  <si>
+    <t>2.5.1控制台屏幕</t>
+  </si>
+  <si>
+    <t>2.5.2 C++++语言中的流</t>
+  </si>
+  <si>
+    <t>2.5.3流操作的控制</t>
+  </si>
+  <si>
+    <t>2.6小结</t>
+  </si>
+  <si>
+    <t>2.7实践与练习</t>
+  </si>
+  <si>
+    <t>第3章 表达式与语句</t>
+  </si>
+  <si>
+    <t>3.1运算符</t>
+  </si>
+  <si>
+    <t>3.1.1算术运算符</t>
+  </si>
+  <si>
+    <t>3.1.2关系运算符</t>
+  </si>
+  <si>
+    <t>3.1.3逻辑运算符</t>
+  </si>
+  <si>
+    <t>3.1.4赋值运算符</t>
+  </si>
+  <si>
+    <t>3.1.5位运算</t>
+  </si>
+  <si>
+    <t>3.1.6移位运算符</t>
+  </si>
+  <si>
+    <t>3.1.7 sizeof运算符</t>
+  </si>
+  <si>
+    <t>3.1.8条件运算符</t>
+  </si>
+  <si>
+    <t>3.1.9逗号运算符</t>
+  </si>
+  <si>
+    <t>3.2结合性和优先级</t>
+  </si>
+  <si>
+    <t>3.3表达式</t>
+  </si>
+  <si>
+    <t>3.3.1算术表达式</t>
+  </si>
+  <si>
+    <t>3.3.2关系表达式</t>
+  </si>
+  <si>
+    <t>3.3.3条件表达式</t>
+  </si>
+  <si>
+    <t>3.3.4赋值表达式</t>
+  </si>
+  <si>
+    <t>3.3.5逻辑表达式</t>
+  </si>
+  <si>
+    <t>3.3.6逗号表达式</t>
+  </si>
+  <si>
+    <t>3.3.7表达式中的类型转换</t>
+  </si>
+  <si>
+    <t>3.4语句</t>
+  </si>
+  <si>
+    <t>3.5小结</t>
+  </si>
+  <si>
+    <t>3.6实践与练习</t>
+  </si>
+  <si>
+    <t>第4章 条件判断语句</t>
+  </si>
+  <si>
+    <t>4.1决策分支</t>
+  </si>
+  <si>
+    <t>4.2判断语句</t>
+  </si>
+  <si>
+    <t>4.2.1第一种形式的判断语句</t>
+  </si>
+  <si>
+    <t>4.2.2第二种形式的判断语句</t>
+  </si>
+  <si>
+    <t>4.2.3第三种形式的判断语句</t>
+  </si>
+  <si>
+    <t>4.3使用条件运算符进行判断</t>
+  </si>
+  <si>
+    <t>4.4 switch语句</t>
+  </si>
+  <si>
+    <t>4.5判断语句的嵌套</t>
+  </si>
+  <si>
+    <t>4.6小结</t>
+  </si>
+  <si>
+    <t>4.7实践与练习</t>
+  </si>
+  <si>
+    <t>第5章 循环语句</t>
+  </si>
+  <si>
+    <t>5.1 while循环</t>
+  </si>
+  <si>
+    <t>5.2 do⋯while循环</t>
+  </si>
+  <si>
+    <t>5.3 while与do⋯while比较</t>
+  </si>
+  <si>
+    <t>5.4 for循环语句</t>
+  </si>
+  <si>
+    <t>5.5循环控制</t>
+  </si>
+  <si>
+    <t>5.5.1控制循环的变量</t>
+  </si>
+  <si>
+    <t>5.5.2 break语句</t>
+  </si>
+  <si>
+    <t>5.5.3 continue语句</t>
+  </si>
+  <si>
+    <t>5.5.4 goto语句</t>
+  </si>
+  <si>
+    <t>5.6循环嵌套</t>
+  </si>
+  <si>
+    <t>5.7循环应用实例</t>
+  </si>
+  <si>
+    <t>5.7.1阿姆斯壮数</t>
+  </si>
+  <si>
+    <t>5.7.2巴斯卡三角形</t>
+  </si>
+  <si>
+    <t>5.7.3对输入的分数进行排名</t>
+  </si>
+  <si>
+    <t>5.8小结</t>
+  </si>
+  <si>
+    <t>5.9实践与练习</t>
+  </si>
+  <si>
+    <t>第6章 函数</t>
+  </si>
+  <si>
+    <t>6.1函数概述</t>
+  </si>
+  <si>
+    <t>6.1.1函数的定义</t>
+  </si>
+  <si>
+    <t>6.1.2函数的声明</t>
+  </si>
+  <si>
+    <t>6.2函数参数及返回值</t>
+  </si>
+  <si>
+    <t>6.2.1返回值</t>
+  </si>
+  <si>
+    <t>6.2.2空函数</t>
+  </si>
+  <si>
+    <t>6.2.3形参与实参</t>
+  </si>
+  <si>
+    <t>6.2.4默认参数</t>
+  </si>
+  <si>
+    <t>6.2.5可变参数</t>
+  </si>
+  <si>
+    <t>6.3函数调用</t>
+  </si>
+  <si>
+    <t>6.3.1传值调用</t>
+  </si>
+  <si>
+    <t>6.3.2嵌套调用</t>
+  </si>
+  <si>
+    <t>6.3.3递归调用</t>
+  </si>
+  <si>
+    <t>6.4变量作用域</t>
+  </si>
+  <si>
+    <t>6.5重载函数</t>
+  </si>
+  <si>
+    <t>6.6内联函数</t>
+  </si>
+  <si>
+    <t>6.7变量的存储类别</t>
+  </si>
+  <si>
+    <t>6.7.1 auto变量</t>
+  </si>
+  <si>
+    <t>6.7.2 static变量</t>
+  </si>
+  <si>
+    <t>6.7.3 register变量</t>
+  </si>
+  <si>
+    <t>6.7.4 extern变量</t>
+  </si>
+  <si>
+    <t>6.8小结</t>
+  </si>
+  <si>
+    <t>6.9实践与练习</t>
+  </si>
+  <si>
+    <t>第7章 数组、指针和引用</t>
+  </si>
+  <si>
+    <t>7.1一维数组</t>
+  </si>
+  <si>
+    <t>7.1.1一维数组的声明</t>
+  </si>
+  <si>
+    <t>7.1.2一维数组的引用</t>
+  </si>
+  <si>
+    <t>7.1.3一维数组的初始化</t>
+  </si>
+  <si>
+    <t>7.2二维数组</t>
+  </si>
+  <si>
+    <t>7.2.1二维数组的声明</t>
+  </si>
+  <si>
+    <t>7.2.2二维数组元素的引用</t>
+  </si>
+  <si>
+    <t>7.2.3二维数组的初始化</t>
+  </si>
+  <si>
+    <t>7.3字符数组</t>
+  </si>
+  <si>
+    <t>7.4指针</t>
+  </si>
+  <si>
+    <t>7.4.1变量与指针</t>
+  </si>
+  <si>
+    <t>7.4.2指针运算符和取地址运算符</t>
+  </si>
+  <si>
+    <t>7.4.3指针运算</t>
+  </si>
+  <si>
+    <t>7.5指针与数组</t>
+  </si>
+  <si>
+    <t>7.5.1数组的存储</t>
+  </si>
+  <si>
+    <t>7.5.2指针与一维数组</t>
+  </si>
+  <si>
+    <t>7.5.3指针与二维数组</t>
+  </si>
+  <si>
+    <t>7.5.4指针与字符数组</t>
+  </si>
+  <si>
+    <t>7.6指向函数的指针</t>
+  </si>
+  <si>
+    <t>7.7 引用</t>
+  </si>
+  <si>
+    <t>7.7.1使用引用传递参数</t>
+  </si>
+  <si>
+    <t>7.7.2指针传递参数</t>
+  </si>
+  <si>
+    <t>7.7.3数组作函数参数</t>
+  </si>
+  <si>
+    <t>7.8指针数组</t>
+  </si>
+  <si>
+    <t>7.9小结</t>
+  </si>
+  <si>
+    <t>7.10实践与练习</t>
+  </si>
+  <si>
+    <t>第8章 构造数据类型</t>
+  </si>
+  <si>
+    <t>8.1结构体</t>
+  </si>
+  <si>
+    <t>8.1.1结构体定义</t>
+  </si>
+  <si>
+    <t>8.1.2结构体变量</t>
+  </si>
+  <si>
+    <t>8.1.3结构体成员及初始化</t>
+  </si>
+  <si>
+    <t>8.1.4结构体的嵌套</t>
+  </si>
+  <si>
+    <t>8.1.5结构体大小</t>
+  </si>
+  <si>
+    <t>8.2结构体与函数</t>
+  </si>
+  <si>
+    <t>8.2.1结构体变量作函数参数</t>
+  </si>
+  <si>
+    <t>8.2.2结构体指针作函数参数</t>
+  </si>
+  <si>
+    <t>8.3结构体数组</t>
+  </si>
+  <si>
+    <t>8.3.1结构体数组声明与引用</t>
+  </si>
+  <si>
+    <t>8.3.2指针访问结构体数组</t>
+  </si>
+  <si>
+    <t>8.4共用体</t>
+  </si>
+  <si>
+    <t>8.4.1共用体的定义与声明</t>
+  </si>
+  <si>
+    <t>8.4.2共用体的大小</t>
+  </si>
+  <si>
+    <t>8.4.3共用体的特点</t>
+  </si>
+  <si>
+    <t>8.5枚举类型</t>
+  </si>
+  <si>
+    <t>8.5.1枚举类型的声明</t>
+  </si>
+  <si>
+    <t>8.5.2枚举类型变量</t>
+  </si>
+  <si>
+    <t>8.5.3枚举类型的运算</t>
+  </si>
+  <si>
+    <t>8.6自定义数据类型</t>
+  </si>
+  <si>
+    <t>8.7小结</t>
+  </si>
+  <si>
+    <t>8.8实践与练习</t>
+  </si>
+  <si>
+    <t>第2篇 核心技术</t>
+  </si>
+  <si>
+    <t>第9章 面向对象编程</t>
+  </si>
+  <si>
+    <t>9.1面向对象概述</t>
+  </si>
+  <si>
+    <t>9.2面向对象与面向过程编程</t>
+  </si>
+  <si>
+    <t>9.2.1面向过程编程</t>
+  </si>
+  <si>
+    <t>9.2.2面向对象编程</t>
+  </si>
+  <si>
+    <t>9.2.3面向对象的特点</t>
+  </si>
+  <si>
+    <t>9.3统一建模语言</t>
+  </si>
+  <si>
+    <t>9.3.1统一建模语言概述</t>
+  </si>
+  <si>
+    <t>9.3.2统一建模语言的结构</t>
+  </si>
+  <si>
+    <t>9.3.3面向对象的建模</t>
+  </si>
+  <si>
+    <t>9.4小结</t>
+  </si>
+  <si>
+    <t>第10章 类和对象</t>
+  </si>
+  <si>
+    <t>10.1 C+++类</t>
+  </si>
+  <si>
+    <t>10.1.1类概述</t>
+  </si>
+  <si>
+    <t>10.1.2类的声明与定义</t>
+  </si>
+  <si>
+    <t>10.1.3类的实现</t>
+  </si>
+  <si>
+    <t>10.1.4对象的声明</t>
+  </si>
+  <si>
+    <t>10.2构造函数</t>
+  </si>
+  <si>
+    <t>10.2.1构造函数概述</t>
+  </si>
+  <si>
+    <t>10.2.2复制构造函数</t>
+  </si>
+  <si>
+    <t>10.3析构函数</t>
+  </si>
+  <si>
+    <t>10.4类成员</t>
+  </si>
+  <si>
+    <t>10.4.1访问类成员</t>
+  </si>
+  <si>
+    <t>10.4.2内联成员函数</t>
+  </si>
+  <si>
+    <t>10.4.3静态类成员</t>
+  </si>
+  <si>
+    <t>10.4.4隐藏的this指针</t>
+  </si>
+  <si>
+    <t>10.4.5嵌套类</t>
+  </si>
+  <si>
+    <t>10.4.6局部类</t>
+  </si>
+  <si>
+    <t>10.5友元</t>
+  </si>
+  <si>
+    <t>10.5.1友元概述</t>
+  </si>
+  <si>
+    <t>10.5.2友元类</t>
+  </si>
+  <si>
+    <t>10.5.3友元方法</t>
+  </si>
+  <si>
+    <t>10.6命名空间</t>
+  </si>
+  <si>
+    <t>10.6.1使用命名空间</t>
+  </si>
+  <si>
+    <t>10.6.2定义命名空间</t>
+  </si>
+  <si>
+    <t>10.6.3在多个文件中定义命名空间</t>
+  </si>
+  <si>
+    <t>10.6.4定义嵌套的命名空间</t>
+  </si>
+  <si>
+    <t>10.6.5定义未命名的命名空间</t>
+  </si>
+  <si>
+    <t>10.7小结</t>
+  </si>
+  <si>
+    <t>10.8实践与练习</t>
+  </si>
+  <si>
+    <t>第11章 继承与派生</t>
+  </si>
+  <si>
+    <t>11.1继承</t>
+  </si>
+  <si>
+    <t>11.1.1类的继承</t>
+  </si>
+  <si>
+    <t>11.1.2继承后可访问性</t>
+  </si>
+  <si>
+    <t>11.1.3构造函数访问顺序</t>
+  </si>
+  <si>
+    <t>11.1.4子类隐藏父类的成员函数</t>
+  </si>
+  <si>
+    <t>11.2重载运算符</t>
+  </si>
+  <si>
+    <t>11.2.1重载运算符的必要性</t>
+  </si>
+  <si>
+    <t>11.2.2重载运算符的形式与规则</t>
+  </si>
+  <si>
+    <t>11.2.3重载运算符的运算</t>
+  </si>
+  <si>
+    <t>11.2.4转换运算符</t>
+  </si>
+  <si>
+    <t>11.3多重继承</t>
+  </si>
+  <si>
+    <t>11.3.1多重继承定义</t>
+  </si>
+  <si>
+    <t>11.3.2二义性</t>
+  </si>
+  <si>
+    <t>11.3.3多重继承的构造顺序</t>
+  </si>
+  <si>
+    <t>11.4多态</t>
+  </si>
+  <si>
+    <t>11.4.1虚函数概述</t>
+  </si>
+  <si>
+    <t>11.4.2利用虚函数实现动态绑定</t>
+  </si>
+  <si>
+    <t>11.4.3虚继承</t>
+  </si>
+  <si>
+    <t>11.5抽象类</t>
+  </si>
+  <si>
+    <t>11.5.1纯虚函数</t>
+  </si>
+  <si>
+    <t>11.5.2实现抽象类中的成员函数</t>
+  </si>
+  <si>
+    <t>11.6小结</t>
+  </si>
+  <si>
+    <t>11.7实践与练习</t>
+  </si>
+  <si>
+    <t>第3篇 高级应用</t>
+  </si>
+  <si>
+    <t>第12章 模板</t>
+  </si>
+  <si>
+    <t>12.1函数模板</t>
+  </si>
+  <si>
+    <t>12.1.1函数模板的定义</t>
+  </si>
+  <si>
+    <t>12.1.2函数模板的作用</t>
+  </si>
+  <si>
+    <t>12.1.3重载函数模板</t>
+  </si>
+  <si>
+    <t>12.2类模板</t>
+  </si>
+  <si>
+    <t>12.2.1类模板的定义与声明</t>
+  </si>
+  <si>
+    <t>12.2.2简单类模板</t>
+  </si>
+  <si>
+    <t>12.2.3默认模板参数</t>
+  </si>
+  <si>
+    <t>12.2.4为具体类型的参数提供默认值</t>
+  </si>
+  <si>
+    <t>12.2.5有界数组模板</t>
+  </si>
+  <si>
+    <t>12.3模板的使用</t>
+  </si>
+  <si>
+    <t>12.3.1定制类模板</t>
+  </si>
+  <si>
+    <t>12.3.2定制类模板成员函数</t>
+  </si>
+  <si>
+    <t>12.3.3模板部分定制</t>
+  </si>
+  <si>
+    <t>12.4链表类模板</t>
+  </si>
+  <si>
+    <t>12.4.1链表</t>
+  </si>
+  <si>
+    <t>12.4.2链表类模板</t>
+  </si>
+  <si>
+    <t>12.4.3类模板的静态数据成员</t>
+  </si>
+  <si>
+    <t>12.5小结</t>
+  </si>
+  <si>
+    <t>12.6实践与练习</t>
+  </si>
+  <si>
+    <t>第13章STL标准模板库</t>
+  </si>
+  <si>
+    <t>13.1序列容器</t>
+  </si>
+  <si>
+    <t>13.1.1向量类模板</t>
+  </si>
+  <si>
+    <t>13.1.2双端队列类模板</t>
+  </si>
+  <si>
+    <t>13.1.3链表类模板</t>
+  </si>
+  <si>
+    <t>13.2结合容器</t>
+  </si>
+  <si>
+    <t>13.2.1 set类模板</t>
+  </si>
+  <si>
+    <t>13.2.2 multiset类模板</t>
+  </si>
+  <si>
+    <t>13.2.3 map类模板</t>
+  </si>
+  <si>
+    <t>13.2.4 multimap类模板</t>
+  </si>
+  <si>
+    <t>13.3算法</t>
+  </si>
+  <si>
+    <t>13.3.1非修正序列算法</t>
+  </si>
+  <si>
+    <t>13.3.2修正序列算法</t>
+  </si>
+  <si>
+    <t>13.3.3排序算法</t>
+  </si>
+  <si>
+    <t>13.3.4数值算法</t>
+  </si>
+  <si>
+    <t>13.4迭代器</t>
+  </si>
+  <si>
+    <t>13.4.1输出迭代器</t>
+  </si>
+  <si>
+    <t>13.4.2输入迭代器</t>
+  </si>
+  <si>
+    <t>13.4.3前向迭代器</t>
+  </si>
+  <si>
+    <t>13.4.4双向迭代器</t>
+  </si>
+  <si>
+    <t>13.4.5随机访问迭代器</t>
+  </si>
+  <si>
+    <t>13.5小结</t>
+  </si>
+  <si>
+    <t>13.6实践与练习</t>
+  </si>
+  <si>
+    <t>第14章RTTI与异常处理</t>
+  </si>
+  <si>
+    <t>14.1 RTTI（运行时类型识别）</t>
+  </si>
+  <si>
+    <t>14.1.1什么是RTTI</t>
+  </si>
+  <si>
+    <t>14.1.2 RTTI与引用</t>
+  </si>
+  <si>
+    <t>14.1.3 RTTI与多重继承</t>
+  </si>
+  <si>
+    <t>14.1.4 RTTI映射语法</t>
+  </si>
+  <si>
+    <t>14.2异常处理</t>
+  </si>
+  <si>
+    <t>14.2.1抛出异常</t>
+  </si>
+  <si>
+    <t>14.2.2异常捕获</t>
+  </si>
+  <si>
+    <t>14.2.3异常匹配</t>
+  </si>
+  <si>
+    <t>14.2.4标准异常</t>
+  </si>
+  <si>
+    <t>14.3小结</t>
+  </si>
+  <si>
+    <t>14.4实践与练习</t>
+  </si>
+  <si>
+    <t>第15章 程序调试</t>
+  </si>
+  <si>
+    <t>15.1选择正确的调试方法</t>
+  </si>
+  <si>
+    <t>15.2程序错误常见的4种类型</t>
+  </si>
+  <si>
+    <t>15.2.1语法错误</t>
+  </si>
+  <si>
+    <t>15.2.2连接错误</t>
+  </si>
+  <si>
+    <t>15.2.3运行时错误</t>
+  </si>
+  <si>
+    <t>15.2.4逻辑错误</t>
+  </si>
+  <si>
+    <t>15.3调试工具的使用</t>
+  </si>
+  <si>
+    <t>15.3.1创建调试程序</t>
+  </si>
+  <si>
+    <t>15.3.2进入调试状态</t>
+  </si>
+  <si>
+    <t>15.3.3 Watch窗口</t>
+  </si>
+  <si>
+    <t>15.3.4 Call Stack窗口</t>
+  </si>
+  <si>
+    <t>15.3.5 Memory窗口</t>
+  </si>
+  <si>
+    <t>15.3.6 Variables窗口</t>
+  </si>
+  <si>
+    <t>15.3.7 Registers窗口</t>
+  </si>
+  <si>
+    <t>15.3.8 Disassembly窗口</t>
+  </si>
+  <si>
+    <t>15.4调试的基本应用</t>
+  </si>
+  <si>
+    <t>15.4.1变量的跟踪与查看</t>
+  </si>
+  <si>
+    <t>15.4.2位置断点的使用</t>
+  </si>
+  <si>
+    <t>15.4.3数据断点的使用</t>
+  </si>
+  <si>
+    <t>15.5调试的高级应用</t>
+  </si>
+  <si>
+    <t>15.5.1在调试时修改变量的值</t>
+  </si>
+  <si>
+    <t>15.5.2在循环中调试</t>
+  </si>
+  <si>
+    <t>15.6小结</t>
+  </si>
+  <si>
+    <t>15.7实践与练习</t>
+  </si>
+  <si>
+    <t>第16章 文件操作</t>
+  </si>
+  <si>
+    <t>16.1文件流</t>
+  </si>
+  <si>
+    <t>16.1.1 C++++中的流类库</t>
+  </si>
+  <si>
+    <t>16.1.2类库的使用</t>
+  </si>
+  <si>
+    <t>16.1.3 ios类中的枚举常量</t>
+  </si>
+  <si>
+    <t>16.1.4流的输入/输出</t>
+  </si>
+  <si>
+    <t>16.2文件打开</t>
+  </si>
+  <si>
+    <t>16.2.1打开方式</t>
+  </si>
+  <si>
+    <t>16.2.2默认打开模式</t>
+  </si>
+  <si>
+    <t>16.2.3打开文件同时创建文件</t>
+  </si>
+  <si>
+    <t>16.3文件的读写</t>
+  </si>
+  <si>
+    <t>16.3.1文件流</t>
+  </si>
+  <si>
+    <t>16.3.2写文本文件</t>
+  </si>
+  <si>
+    <t>16.3.3读取文本文件</t>
+  </si>
+  <si>
+    <t>16.3.4二进制文件的读写</t>
+  </si>
+  <si>
+    <t>16.3.5实现文件复制</t>
+  </si>
+  <si>
+    <t>16.4文件指针移动操作</t>
+  </si>
+  <si>
+    <t>16.4.1文件错误与状态</t>
+  </si>
+  <si>
+    <t>16.4.2文件的追加</t>
+  </si>
+  <si>
+    <t>16.4.3文件结尾的判断</t>
+  </si>
+  <si>
+    <t>16.4.4在指定位置读写文件</t>
+  </si>
+  <si>
+    <t>16.5文件和流的关联和分离</t>
+  </si>
+  <si>
+    <t>16.6删除文件</t>
+  </si>
+  <si>
+    <t>16.7小结</t>
+  </si>
+  <si>
+    <t>16.8实践与练习</t>
+  </si>
+  <si>
+    <t>第17章 网络通信</t>
+  </si>
+  <si>
+    <t>17.1 TCP/IP协议</t>
+  </si>
+  <si>
+    <t>17.1.1 OSI参考模型</t>
+  </si>
+  <si>
+    <t>17.1.2 TCP/IP参考模型</t>
+  </si>
+  <si>
+    <t>17.1.3 IP地址</t>
+  </si>
+  <si>
+    <t>17.1.4数据包格式</t>
+  </si>
+  <si>
+    <t>17.2套接字</t>
+  </si>
+  <si>
+    <t>17.2.1 Winsock套接字</t>
+  </si>
+  <si>
+    <t>17.2.2 Winsock的使用</t>
+  </si>
+  <si>
+    <t>17.2.3套接字阻塞模式</t>
+  </si>
+  <si>
+    <t>17.2.4字节顺序</t>
+  </si>
+  <si>
+    <t>17.2.5面向连接流</t>
+  </si>
+  <si>
+    <t>17.2.6面向无连接流</t>
+  </si>
+  <si>
+    <t>17.3简单协议通信</t>
+  </si>
+  <si>
+    <t>17.3.1服务端</t>
+  </si>
+  <si>
+    <t>17.3.2客户端</t>
+  </si>
+  <si>
+    <t>17.3.3实例的运行</t>
+  </si>
+  <si>
+    <t>17.4小结</t>
+  </si>
+  <si>
+    <t>17.5实践与练习</t>
+  </si>
+  <si>
+    <t>第4篇 项目实战</t>
+  </si>
+  <si>
+    <t>第18章 图书管理系统</t>
+  </si>
+  <si>
+    <t>18.1系统设计</t>
+  </si>
+  <si>
+    <t>18.1.1需求分析</t>
+  </si>
+  <si>
+    <t>18.1.2系统目标</t>
+  </si>
+  <si>
+    <t>18.1.3系统功能结构</t>
+  </si>
+  <si>
+    <t>18.2图书类</t>
+  </si>
+  <si>
+    <t>18.3主程序</t>
+  </si>
+  <si>
+    <t>18.4添加图书</t>
+  </si>
+  <si>
+    <t>18.5显示图书信息</t>
+  </si>
+  <si>
+    <t>18.6删除图书</t>
+  </si>
+  <si>
+    <t>18.7小结</t>
+  </si>
 </sst>
 </file>
 
@@ -22993,7 +24347,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23003,6 +24357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -23021,7 +24381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23047,6 +24407,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23373,8 +24736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23396,6 +24759,9 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
+      <c r="C2" s="1">
+        <v>43648</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -23404,6 +24770,9 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="1">
+        <v>43647</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -23411,6 +24780,9 @@
       </c>
       <c r="B4" t="s">
         <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43646</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -23569,6 +24941,2275 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R427"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="H413" sqref="H413"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>7146</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>7147</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>7148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>7149</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>7150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>7151</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>7152</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>7153</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>7154</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>7155</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>7156</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>7157</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>7158</v>
+      </c>
+      <c r="J13" t="s">
+        <v>7207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>7159</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>7160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>7161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>7162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>7163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>7164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>7165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>7166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>7167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>7168</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>7169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>7170</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>7171</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>7172</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>7173</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>7174</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>7175</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>7176</v>
+      </c>
+      <c r="J31" t="s">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>7177</v>
+      </c>
+      <c r="J32" t="s">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>7178</v>
+      </c>
+      <c r="J33" t="s">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>7179</v>
+      </c>
+      <c r="J34" t="s">
+        <v>7220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>7181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>7183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>7185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>7187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>7189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>7191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>7193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>7194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>7221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>7222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>7225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>7226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>7227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>7228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>7229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>7233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>7234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>7237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>7238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>7239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>7241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>7242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>7243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>7244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>7245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>7246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>7247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>7249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>7251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>7252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>7253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>7256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>7257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>7259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>7260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>7261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>7262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>7263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>7264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>7265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>7266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>7267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>7268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>7269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>7270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>7271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>7272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>7273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>7274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>7275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>7276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>7277</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>7278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>7279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>7281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>7282</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>7283</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>7285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>7286</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>7288</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>7289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>7291</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>7294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>7295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>7296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>7297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>7298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>7299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>7301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>7303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>7305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>7306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>7309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>7310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>7311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>7315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>7316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>7317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>7319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>7321</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>7322</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>7323</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>7324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>7325</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>7326</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>7327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>7328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>7329</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>7331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>7332</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>7334</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>7335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>7336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>7337</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>7338</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>7339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>7341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>7342</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>7344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>7346</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>7349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>7351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>7353</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>7354</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>7355</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>7358</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>7359</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>7363</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>7364</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>7365</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>7366</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>7367</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>7368</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>7369</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>7371</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>7373</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>7375</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>7376</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>7377</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>7378</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>7379</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>7381</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>7383</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>7384</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>7385</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>7386</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>7387</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>7388</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>7389</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>7391</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>7397</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>7398</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>7399</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>7404</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>7409</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>7413</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>7414</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>7415</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>7419</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>7420</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>7421</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>7423</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>7424</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>7425</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>7426</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>7427</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>7428</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>7429</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>7430</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>7431</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>7432</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>7433</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>7434</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>7435</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>7437</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>7438</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>7439</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>7441</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>7442</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>7443</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>7444</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>7445</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>7447</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>7448</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>7449</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>7453</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>7454</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>7455</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>7456</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>7457</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>7458</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>7459</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>7461</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>7462</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>7463</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>7464</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>7466</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>7467</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>7468</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>7469</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>7472</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>7473</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>7474</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>7475</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>7476</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>7477</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>7478</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>7479</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>7481</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>7482</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>7483</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>7484</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>7485</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>7486</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>7487</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>7489</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>7492</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>7493</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>7494</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>7495</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>7496</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>7498</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>7499</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>7501</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>7506</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>7507</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>7509</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>7510</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>7511</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>7513</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>7514</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>7517</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>7519</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>7523</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>7525</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>7526</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>7527</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>7528</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>7529</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>7531</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>7533</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>7534</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>7535</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>7537</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>7538</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>7539</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>7540</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>7541</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>7542</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>7543</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>7545</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>7547</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>7548</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>7549</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>7551</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>7552</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>7554</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>7555</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>7556</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>7558</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>7559</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>7561</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>7562</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>7563</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>7564</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>7565</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>7566</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>7567</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>7568</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>7569</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>7570</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>7572</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>7573</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>7574</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>7575</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>7576</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>7577</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>7579</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>7581</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>7582</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>7583</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>7585</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>7587</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>7588</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>7589</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>7591</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>7592</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>7593</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>7594</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>7595</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>7596</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -23584,7 +27225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -23600,7 +27241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z680"/>
   <sheetViews>
@@ -37302,7 +40943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F752"/>
   <sheetViews>
@@ -52349,7 +55990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1000"/>
   <sheetViews>
@@ -72346,7 +75987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1000"/>
   <sheetViews>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="阅读计划" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="自我成长" sheetId="5" r:id="rId6"/>
     <sheet name="自我管理" sheetId="6" r:id="rId7"/>
     <sheet name="思维" sheetId="7" r:id="rId8"/>
+    <sheet name="知识管理" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10783" uniqueCount="7597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11022" uniqueCount="7713">
   <si>
     <t>02 寻找心中的“巴拿马”如何做出比好更好的选择</t>
   </si>
@@ -24293,6 +24294,400 @@
   </si>
   <si>
     <t>18.7小结</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/30465562/</t>
+  </si>
+  <si>
+    <t>智识的生产技术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[日] 梅棹忠夫 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/30465562/buylinks</t>
+  </si>
+  <si>
+    <t>https://read.douban.com/ebook/107414595/?dcs=tag-buylink&amp;dcm=douban&amp;dct=30465562</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1045862/</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1045862/buylinks</t>
+  </si>
+  <si>
+    <t>创新的本质日本名企最新知识管理案例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(日)野中郁次郎 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26809387/</t>
+  </si>
+  <si>
+    <t>知识创造的螺旋知识管理理论与案例研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹内弘高、野中郁次郎 </t>
+  </si>
+  <si>
+    <t>知识管理 为业务绩效赋能为业务绩效赋能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[英]尼克·米尔顿 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26809387/?channel=subject_list&amp;platform=web</t>
+  </si>
+  <si>
+    <t>https://read.douban.com/ebook/36409887/?dcs=tag-buylink&amp;dcm=douban&amp;dct=26809387</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26850526/</t>
+  </si>
+  <si>
+    <t>个人知识迈向后批判哲学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【英】迈克尔·波兰尼 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26850526/buylinks</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26786537/</t>
+  </si>
+  <si>
+    <t>创造知识的企业日美企业持续创新的动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野中郁次郎、竹内弘高 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1811450/</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1811450/buylinks</t>
+  </si>
+  <si>
+    <t>百问知识管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萧秋水、陈永隆、唐兆希 </t>
+  </si>
+  <si>
+    <t>知识管理一种集成方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿肖克·贾夏帕拉 </t>
+  </si>
+  <si>
+    <t>知识资产：在信息经济中赢得竞争优势在信息经济中赢得竞争优势</t>
+  </si>
+  <si>
+    <r>
+      <t>（英）马克斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">博伊索特 </t>
+    </r>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27591449/</t>
+  </si>
+  <si>
+    <t>有道云笔记：记录，成为更好的自己</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萧秋水、有道云笔记 主编 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/27591449/?channel=subject_list&amp;platform=web</t>
+  </si>
+  <si>
+    <t>高效工作变革术：佐佐木常夫的取舍之道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（日）佐佐木常夫 </t>
+  </si>
+  <si>
+    <t>https://read.douban.com/ebook/50303459/?dcs=tag-buylink&amp;dcm=douban&amp;dct=27591449</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/20412324/</t>
+  </si>
+  <si>
+    <t>知识管理研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">经济科学出版社 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/20412324/?channel=subject_list&amp;platform=web</t>
+  </si>
+  <si>
+    <t>权力的转移</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[美] 阿尔温·托夫勒 </t>
+  </si>
+  <si>
+    <t>网络时代的知识和学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G·西蒙斯 </t>
+  </si>
+  <si>
+    <t>习惯重于方法胡适谈读书治学</t>
+  </si>
+  <si>
+    <t>竞争情报完全指南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柯克·W·M·泰森 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1312032/</t>
+  </si>
+  <si>
+    <t>你的效率是整理出来的高效能人士的超级整理术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张一驰 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25732258/</t>
+  </si>
+  <si>
+    <t>知识工程与知识管理</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/25732258/buylinks</t>
+  </si>
+  <si>
+    <t>打開大家的 Evernote 筆記本50位職人x 50種思考x 50個活用，為什麼這樣做筆記可以解決80%的工作問題</t>
+  </si>
+  <si>
+    <t>战争论第一编</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡尔·冯·克劳塞维茨 </t>
+  </si>
+  <si>
+    <t>停止盲目努力：你的人生需要再设计</t>
+  </si>
+  <si>
+    <t>30种大脑训练方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">筱原菊纪 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26944900/</t>
+  </si>
+  <si>
+    <t>知识化生存知识管理.方法论</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴庆海、夏敬华 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨开峰等译 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26944900/?channel=subject_list&amp;platform=web</t>
+  </si>
+  <si>
+    <t>https://read.douban.com/ebook/38941474/?dcs=tag-buylink&amp;dcm=douban&amp;dct=26944900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梁林梅 孙俊华 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/4880379/</t>
+  </si>
+  <si>
+    <t>国家、地区和城市的知识资本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿莫德·波尔弗、利夫·埃德文森 </t>
+  </si>
+  <si>
+    <t>日产，这样赢得世界</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（日）野中郁次郎、（日）德冈晃一郎 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26616248/</t>
+  </si>
+  <si>
+    <t>知识管理良好实践指南GB/T23703知识管理国家标准解读</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岳高峰、朱虹、张艳琦、史立武 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/24524405/</t>
+  </si>
+  <si>
+    <t>用数据说话大数据时代的管理实践</t>
+  </si>
+  <si>
+    <t xml:space="preserve">崔小屹、韩青 </t>
+  </si>
+  <si>
+    <t>看好自己的文件夹(企业知识管理的精髓)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水藏玺、范海东、范海东、水藏玺 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/24524405/buylinks</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/5398988/</t>
+  </si>
+  <si>
+    <t>未来世界的100种变化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">布凌格 </t>
+  </si>
+  <si>
+    <t>越读者</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1319097/</t>
+  </si>
+  <si>
+    <t>互联网+秋叶课堂：我的网课创业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">秋叶 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1319097/buylinks</t>
+  </si>
+  <si>
+    <t>虚拟学习社区中的知识建构和集体智慧发展知识管理与e-learning结合的视角</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甘永成 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/3644095/</t>
+  </si>
+  <si>
+    <t>好好学习企业知识管理：从认知到实践</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴庆海 </t>
+  </si>
+  <si>
+    <t>构建知识管理网络有效沟通的实践、工具和技术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">费尔等 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26744929/</t>
+  </si>
+  <si>
+    <t>知识分类与知识资源认识论</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈洪澜 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26744929/buylinks</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/7007666/</t>
+  </si>
+  <si>
+    <t>学习型组织研发团队管理指南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(美) 大卫·马瑟森, 杰姆·马瑟森著;孙非, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(美)托马斯.M.科洛波洛斯 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/7007666/buylinks</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1680805/</t>
+  </si>
+  <si>
+    <t>記事本圓夢計畫為自己量身打造理想的人生金字塔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熊谷正壽 </t>
+  </si>
+  <si>
+    <t>知识探戈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斯威比 </t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1680805/buylinks</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1485620/</t>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/1239678/</t>
+  </si>
+  <si>
+    <t>知识管理原理与应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廖开际 </t>
   </si>
 </sst>
 </file>
@@ -24944,7 +25339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+    <sheetView topLeftCell="A400" workbookViewId="0">
       <selection activeCell="H413" sqref="H413"/>
     </sheetView>
   </sheetViews>
@@ -96005,4 +96400,1621 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1">
+        <v>7.8</v>
+      </c>
+      <c r="E1">
+        <v>4222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2">
+        <v>5.2</v>
+      </c>
+      <c r="E2">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3">
+        <v>8.4</v>
+      </c>
+      <c r="E3">
+        <v>3104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>914</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6036</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D5">
+        <v>7.7</v>
+      </c>
+      <c r="E5">
+        <v>1058</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7598</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7599</v>
+      </c>
+      <c r="D6">
+        <v>8.1</v>
+      </c>
+      <c r="E6">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D7">
+        <v>7.2</v>
+      </c>
+      <c r="E7">
+        <v>2685</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8">
+        <v>7.9</v>
+      </c>
+      <c r="E8">
+        <v>1303</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4099</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4100</v>
+      </c>
+      <c r="D9">
+        <v>7.3</v>
+      </c>
+      <c r="E9">
+        <v>2235</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>622</v>
+      </c>
+      <c r="C10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D10">
+        <v>7.5</v>
+      </c>
+      <c r="E10">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D11">
+        <v>7.8</v>
+      </c>
+      <c r="E11">
+        <v>532</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7604</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7605</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7607</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7608</v>
+      </c>
+      <c r="D13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7609</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7610</v>
+      </c>
+      <c r="D14">
+        <v>7.6</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6869</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6870</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5727</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D16">
+        <v>9.5</v>
+      </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>723</v>
+      </c>
+      <c r="C17" t="s">
+        <v>682</v>
+      </c>
+      <c r="D17">
+        <v>7.6</v>
+      </c>
+      <c r="E17">
+        <v>956</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7614</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7615</v>
+      </c>
+      <c r="D18">
+        <v>8.5</v>
+      </c>
+      <c r="E18">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" t="s">
+        <v>481</v>
+      </c>
+      <c r="D19">
+        <v>7.6</v>
+      </c>
+      <c r="E19">
+        <v>190</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D20">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7618</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7619</v>
+      </c>
+      <c r="D21">
+        <v>8.5</v>
+      </c>
+      <c r="E21">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>458</v>
+      </c>
+      <c r="C22" t="s">
+        <v>459</v>
+      </c>
+      <c r="D22">
+        <v>6.2</v>
+      </c>
+      <c r="E22">
+        <v>652</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D23">
+        <v>6.6</v>
+      </c>
+      <c r="E23">
+        <v>449</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24">
+        <v>7.8</v>
+      </c>
+      <c r="E24">
+        <v>1027</v>
+      </c>
+      <c r="F24" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7622</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7623</v>
+      </c>
+      <c r="D25">
+        <v>7.5</v>
+      </c>
+      <c r="E25">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C26" t="s">
+        <v>514</v>
+      </c>
+      <c r="D26">
+        <v>6.3</v>
+      </c>
+      <c r="E26">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7624</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7625</v>
+      </c>
+      <c r="D27">
+        <v>7.6</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D28">
+        <v>7.1</v>
+      </c>
+      <c r="E28">
+        <v>236</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7626</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7627</v>
+      </c>
+      <c r="D29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E29">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C30" t="s">
+        <v>957</v>
+      </c>
+      <c r="D30">
+        <v>7.3</v>
+      </c>
+      <c r="E30">
+        <v>441</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6098</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D31">
+        <v>7.3</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7629</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7630</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" t="s">
+        <v>355</v>
+      </c>
+      <c r="D33">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E33">
+        <v>1499</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7632</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7633</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D35">
+        <v>6.5</v>
+      </c>
+      <c r="E35">
+        <v>233</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7636</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7637</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D37">
+        <v>7.4</v>
+      </c>
+      <c r="E37">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7639</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7640</v>
+      </c>
+      <c r="D38">
+        <v>7.8</v>
+      </c>
+      <c r="E38">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7641</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7642</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7643</v>
+      </c>
+      <c r="C40" t="s">
+        <v>707</v>
+      </c>
+      <c r="D40">
+        <v>7.9</v>
+      </c>
+      <c r="E40">
+        <v>85</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7644</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7645</v>
+      </c>
+      <c r="D41">
+        <v>7.8</v>
+      </c>
+      <c r="E41">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7647</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7648</v>
+      </c>
+      <c r="D42">
+        <v>6.5</v>
+      </c>
+      <c r="E42">
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D43">
+        <v>7.9</v>
+      </c>
+      <c r="E43">
+        <v>3524</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D44">
+        <v>7.4</v>
+      </c>
+      <c r="E44">
+        <v>481</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7650</v>
+      </c>
+      <c r="C45" s="3">
+        <v>40299</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7651</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7652</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D46">
+        <v>7.3</v>
+      </c>
+      <c r="E46">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D47">
+        <v>6.4</v>
+      </c>
+      <c r="E47">
+        <v>804</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7653</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7654</v>
+      </c>
+      <c r="D48">
+        <v>8.4</v>
+      </c>
+      <c r="E48">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7655</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D49">
+        <v>7.7</v>
+      </c>
+      <c r="E49">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7656</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7657</v>
+      </c>
+      <c r="D50">
+        <v>6.2</v>
+      </c>
+      <c r="E50">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7659</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7660</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7661</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>69</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D53">
+        <v>7.9</v>
+      </c>
+      <c r="E53">
+        <v>173</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7664</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7666</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7667</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7668</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7669</v>
+      </c>
+      <c r="D56">
+        <v>7.6</v>
+      </c>
+      <c r="E56">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7670</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>934</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7670</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7671</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7672</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7674</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7675</v>
+      </c>
+      <c r="D59">
+        <v>5.8</v>
+      </c>
+      <c r="E59">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7673</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7676</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7677</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7668</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7669</v>
+      </c>
+      <c r="D61">
+        <v>7.6</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7680</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7681</v>
+      </c>
+      <c r="D62">
+        <v>7.7</v>
+      </c>
+      <c r="E62">
+        <v>47</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7679</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7682</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5129</v>
+      </c>
+      <c r="D63">
+        <v>7.9</v>
+      </c>
+      <c r="E63">
+        <v>3666</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7684</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7685</v>
+      </c>
+      <c r="D64">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E64">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5946</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D65">
+        <v>7.1</v>
+      </c>
+      <c r="E65">
+        <v>2243</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7686</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7687</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7688</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7690</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7691</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7692</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7693</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4816</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4817</v>
+      </c>
+      <c r="D69">
+        <v>6.8</v>
+      </c>
+      <c r="E69">
+        <v>2363</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7694</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7695</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7696</v>
+      </c>
+      <c r="D70">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E70">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>842</v>
+      </c>
+      <c r="C71" t="s">
+        <v>843</v>
+      </c>
+      <c r="D71">
+        <v>6.8</v>
+      </c>
+      <c r="E71">
+        <v>2421</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7699</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7700</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7701</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7702</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" t="s">
+        <v>479</v>
+      </c>
+      <c r="D74">
+        <v>6.9</v>
+      </c>
+      <c r="E74">
+        <v>1419</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7704</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7705</v>
+      </c>
+      <c r="D75">
+        <v>7.7</v>
+      </c>
+      <c r="E75">
+        <v>1355</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7706</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7707</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D77">
+        <v>7.9</v>
+      </c>
+      <c r="E77">
+        <v>3524</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>968</v>
+      </c>
+      <c r="C78" t="s">
+        <v>969</v>
+      </c>
+      <c r="D78">
+        <v>7.1</v>
+      </c>
+      <c r="E78">
+        <v>976</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C79" t="s">
+        <v>514</v>
+      </c>
+      <c r="D79">
+        <v>6.3</v>
+      </c>
+      <c r="E79">
+        <v>46</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7711</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7712</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7710</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>